--- a/medicine/Pharmacie/Dissociatif_(psychotrope)/Dissociatif_(psychotrope).xlsx
+++ b/medicine/Pharmacie/Dissociatif_(psychotrope)/Dissociatif_(psychotrope).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les dissociatifs sont une classe de psychotrope qui ont un effet dépresseur sur le système nerveux central. Les effets sont généralement marqués par une sensation de décorporation (sensation de sortir de son corps), un état de rêve et des hallucinations. Ils peuvent produire la sédation, une dépression respiratoire, l'analgésie, l'anesthésie, l'ataxie ainsi que des problèmes cognitifs et l'amnésie.
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Antagonistes du récepteur NMDA
-Adamantanes
+          <t>Antagonistes du récepteur NMDA</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Adamantanes
 Amantadine
 Mémantine
 Rimantadine
